--- a/cypress/fixtures/Fal6-Files/Passenger details FAL 6-PositiveData.xlsx
+++ b/cypress/fixtures/Fal6-Files/Passenger details FAL 6-PositiveData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayanthi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW-Main\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{665FBAB1-A195-43B5-BE63-37707E4C11B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C9633-FA85-419E-838E-9BA622A44347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5037,7 +5037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5130,6 +5130,11 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5699,9 +5704,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5895,9 +5901,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1B7B9A89-521C-40BA-8EAD-F124CB22523B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -7057,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1"/>
@@ -30650,6 +30657,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
@@ -30658,15 +30674,6 @@
     <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30689,6 +30696,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBE091B-C892-47B3-9F2A-5DA83D5D54B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF2D27B-F605-4F88-8862-5E3188DD9C6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -30697,12 +30712,4 @@
     <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBE091B-C892-47B3-9F2A-5DA83D5D54B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cypress/fixtures/Fal6-Files/Passenger details FAL 6-PositiveData.xlsx
+++ b/cypress/fixtures/Fal6-Files/Passenger details FAL 6-PositiveData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW-Main\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSWTemp\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C9633-FA85-419E-838E-9BA622A44347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33FAFA1-4F25-4DAF-8149-52F2D52E926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAL 6" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1645">
   <si>
     <t xml:space="preserve">Your reference (optional). 
 For example, vessel name or voyage number
@@ -5003,34 +5003,71 @@
     </r>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>12/03/1970</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>12/05/2035</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>TNTUN</t>
-  </si>
-  <si>
-    <t>GBSOU</t>
+    <t xml:space="preserve">
+P
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GBR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1234567
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Smith
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+John
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12/03/1970
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+London
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12/05/2035
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TN
+TUN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GB
+SOU
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Y
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1245
+</t>
   </si>
 </sst>
 </file>
@@ -7064,24 +7101,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="19.81640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="14" customWidth="1"/>
-    <col min="6" max="11" width="19.81640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="19.81640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="4" width="19.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="14" customWidth="1"/>
+    <col min="6" max="11" width="19.85546875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="14" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="0" style="14" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="93">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="94.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7119,7 +7156,7 @@
       <c r="N2" s="52"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:15" ht="62">
+    <row r="3" spans="1:15" ht="63">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7166,7 +7203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="40" customFormat="1" ht="201.5">
+    <row r="4" spans="1:15" s="40" customFormat="1" ht="195">
       <c r="A4" s="35" t="s">
         <v>17</v>
       </c>
@@ -7213,52 +7250,52 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="60">
       <c r="A5" s="17" t="s">
         <v>1632</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1234567</v>
+        <v>1633</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1634</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>1633</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>1634</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>1635</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>1637</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>1279</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="20"/>
@@ -7275,7 +7312,7 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="20"/>
@@ -7292,7 +7329,7 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -7309,7 +7346,7 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -7326,7 +7363,7 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -7343,7 +7380,7 @@
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -7360,7 +7397,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="20"/>
@@ -7377,7 +7414,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -7394,7 +7431,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -7411,7 +7448,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -7428,7 +7465,7 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -7445,7 +7482,7 @@
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="23"/>
@@ -7462,7 +7499,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -7480,7 +7517,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="27"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -7498,7 +7535,7 @@
       <c r="O19" s="28"/>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -7516,7 +7553,7 @@
       <c r="O20" s="26"/>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -7534,7 +7571,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7552,7 +7589,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -7570,7 +7607,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -23900,15 +23937,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="42"/>
-    <col min="2" max="2" width="9.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="9.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="58.5">
@@ -23916,7 +23953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="43" t="s">
         <v>33</v>
       </c>
@@ -23939,7 +23976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="42" t="s">
         <v>40</v>
       </c>
@@ -23962,7 +23999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="42" t="s">
         <v>47</v>
       </c>
@@ -23985,7 +24022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="42" t="s">
         <v>53</v>
       </c>
@@ -24008,7 +24045,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="42" t="s">
         <v>59</v>
       </c>
@@ -24031,7 +24068,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="42" t="s">
         <v>65</v>
       </c>
@@ -24054,7 +24091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="42" t="s">
         <v>71</v>
       </c>
@@ -24077,7 +24114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="42" t="s">
         <v>77</v>
       </c>
@@ -24100,7 +24137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="42" t="s">
         <v>83</v>
       </c>
@@ -24123,7 +24160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="42" t="s">
         <v>90</v>
       </c>
@@ -24146,7 +24183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="42" t="s">
         <v>97</v>
       </c>
@@ -24169,7 +24206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="42" t="s">
         <v>103</v>
       </c>
@@ -24192,7 +24229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="42" t="s">
         <v>109</v>
       </c>
@@ -24215,7 +24252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="42" t="s">
         <v>115</v>
       </c>
@@ -24238,7 +24275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="42" t="s">
         <v>122</v>
       </c>
@@ -24261,7 +24298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="42" t="s">
         <v>128</v>
       </c>
@@ -24284,7 +24321,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="42" t="s">
         <v>134</v>
       </c>
@@ -24307,7 +24344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="42" t="s">
         <v>140</v>
       </c>
@@ -24330,7 +24367,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.5">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="42" t="s">
         <v>146</v>
       </c>
@@ -24353,7 +24390,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="42" t="s">
         <v>153</v>
       </c>
@@ -24376,7 +24413,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.5">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="42" t="s">
         <v>160</v>
       </c>
@@ -24399,7 +24436,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.5">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="42" t="s">
         <v>166</v>
       </c>
@@ -24422,7 +24459,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.5">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="42" t="s">
         <v>172</v>
       </c>
@@ -24445,7 +24482,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="42" t="s">
         <v>178</v>
       </c>
@@ -24468,7 +24505,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.5">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="42" t="s">
         <v>184</v>
       </c>
@@ -24491,7 +24528,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.5">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="42" t="s">
         <v>190</v>
       </c>
@@ -24514,7 +24551,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.5">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="42" t="s">
         <v>197</v>
       </c>
@@ -24537,7 +24574,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.5">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>203</v>
       </c>
@@ -24560,7 +24597,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.5">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="42" t="s">
         <v>209</v>
       </c>
@@ -24583,7 +24620,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.5">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="42" t="s">
         <v>215</v>
       </c>
@@ -24606,7 +24643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.5">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="42" t="s">
         <v>222</v>
       </c>
@@ -24629,7 +24666,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5">
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="42" t="s">
         <v>229</v>
       </c>
@@ -24652,7 +24689,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5">
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="42" t="s">
         <v>236</v>
       </c>
@@ -24675,7 +24712,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.5">
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="42" t="s">
         <v>243</v>
       </c>
@@ -24698,7 +24735,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="42" t="s">
         <v>249</v>
       </c>
@@ -24721,7 +24758,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="42" t="s">
         <v>255</v>
       </c>
@@ -24744,7 +24781,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="42" t="s">
         <v>261</v>
       </c>
@@ -24767,7 +24804,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5">
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="42" t="s">
         <v>267</v>
       </c>
@@ -24790,7 +24827,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5">
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="42" t="s">
         <v>273</v>
       </c>
@@ -24813,7 +24850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="42" t="s">
         <v>279</v>
       </c>
@@ -24836,7 +24873,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.5">
+    <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="42" t="s">
         <v>286</v>
       </c>
@@ -24859,7 +24896,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.5">
+    <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="42" t="s">
         <v>293</v>
       </c>
@@ -24882,7 +24919,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.5">
+    <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="42" t="s">
         <v>299</v>
       </c>
@@ -24905,7 +24942,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.5">
+    <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="42" t="s">
         <v>305</v>
       </c>
@@ -24928,7 +24965,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.5">
+    <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="42" t="s">
         <v>311</v>
       </c>
@@ -24951,7 +24988,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.5">
+    <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="42" t="s">
         <v>318</v>
       </c>
@@ -24974,7 +25011,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.5">
+    <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="42" t="s">
         <v>324</v>
       </c>
@@ -24997,7 +25034,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.5">
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="42" t="s">
         <v>330</v>
       </c>
@@ -25020,7 +25057,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.5">
+    <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="42" t="s">
         <v>336</v>
       </c>
@@ -25043,7 +25080,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.5">
+    <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="42" t="s">
         <v>342</v>
       </c>
@@ -25066,7 +25103,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.5">
+    <row r="52" spans="1:7" ht="15.75">
       <c r="A52" s="42" t="s">
         <v>349</v>
       </c>
@@ -25089,7 +25126,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.5">
+    <row r="53" spans="1:7" ht="15.75">
       <c r="A53" s="42" t="s">
         <v>356</v>
       </c>
@@ -25112,7 +25149,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.5">
+    <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="42" t="s">
         <v>362</v>
       </c>
@@ -25135,7 +25172,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.5">
+    <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="42" t="s">
         <v>368</v>
       </c>
@@ -25158,7 +25195,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.5">
+    <row r="56" spans="1:7" ht="15.75">
       <c r="A56" s="42" t="s">
         <v>374</v>
       </c>
@@ -25181,7 +25218,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.5">
+    <row r="57" spans="1:7" ht="15.75">
       <c r="A57" s="42" t="s">
         <v>380</v>
       </c>
@@ -25204,7 +25241,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.5">
+    <row r="58" spans="1:7" ht="15.75">
       <c r="A58" s="42" t="s">
         <v>386</v>
       </c>
@@ -25227,7 +25264,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.5">
+    <row r="59" spans="1:7" ht="15.75">
       <c r="A59" s="42" t="s">
         <v>393</v>
       </c>
@@ -25250,7 +25287,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.5">
+    <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="42" t="s">
         <v>399</v>
       </c>
@@ -25273,7 +25310,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.5">
+    <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="42" t="s">
         <v>405</v>
       </c>
@@ -25296,7 +25333,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.5">
+    <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="42" t="s">
         <v>411</v>
       </c>
@@ -25319,7 +25356,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.5">
+    <row r="63" spans="1:7" ht="15.75">
       <c r="A63" s="42" t="s">
         <v>418</v>
       </c>
@@ -25342,7 +25379,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.5">
+    <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="42" t="s">
         <v>425</v>
       </c>
@@ -25365,7 +25402,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.5">
+    <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="42" t="s">
         <v>431</v>
       </c>
@@ -25388,7 +25425,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.5">
+    <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="42" t="s">
         <v>437</v>
       </c>
@@ -25411,7 +25448,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.5">
+    <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="42" t="s">
         <v>443</v>
       </c>
@@ -25434,7 +25471,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.5">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="42" t="s">
         <v>448</v>
       </c>
@@ -25457,7 +25494,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.5">
+    <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="42" t="s">
         <v>453</v>
       </c>
@@ -25480,7 +25517,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.5">
+    <row r="70" spans="1:7" ht="15.75">
       <c r="A70" s="42" t="s">
         <v>458</v>
       </c>
@@ -25503,7 +25540,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.5">
+    <row r="71" spans="1:7" ht="15.75">
       <c r="A71" s="42" t="s">
         <v>463</v>
       </c>
@@ -25526,7 +25563,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.5">
+    <row r="72" spans="1:7" ht="15.75">
       <c r="A72" s="42" t="s">
         <v>469</v>
       </c>
@@ -25549,7 +25586,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.5">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="42" t="s">
         <v>475</v>
       </c>
@@ -25572,7 +25609,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.5">
+    <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="42" t="s">
         <v>481</v>
       </c>
@@ -25595,7 +25632,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.5">
+    <row r="75" spans="1:7" ht="15.75">
       <c r="A75" s="42" t="s">
         <v>487</v>
       </c>
@@ -25618,7 +25655,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.5">
+    <row r="76" spans="1:7" ht="15.75">
       <c r="A76" s="42" t="s">
         <v>493</v>
       </c>
@@ -25641,7 +25678,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.5">
+    <row r="77" spans="1:7" ht="15.75">
       <c r="A77" s="42" t="s">
         <v>499</v>
       </c>
@@ -25664,7 +25701,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.5">
+    <row r="78" spans="1:7" ht="15.75">
       <c r="A78" s="42" t="s">
         <v>504</v>
       </c>
@@ -25687,7 +25724,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.5">
+    <row r="79" spans="1:7" ht="15.75">
       <c r="A79" s="42" t="s">
         <v>509</v>
       </c>
@@ -25710,7 +25747,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.5">
+    <row r="80" spans="1:7" ht="15.75">
       <c r="A80" s="42" t="s">
         <v>516</v>
       </c>
@@ -25733,7 +25770,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.5">
+    <row r="81" spans="1:7" ht="15.75">
       <c r="A81" s="42" t="s">
         <v>523</v>
       </c>
@@ -25756,7 +25793,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.5">
+    <row r="82" spans="1:7" ht="15.75">
       <c r="A82" s="42" t="s">
         <v>528</v>
       </c>
@@ -25779,7 +25816,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.5">
+    <row r="83" spans="1:7" ht="15.75">
       <c r="A83" s="42" t="s">
         <v>533</v>
       </c>
@@ -25802,7 +25839,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.5">
+    <row r="84" spans="1:7" ht="15.75">
       <c r="A84" s="42" t="s">
         <v>538</v>
       </c>
@@ -25825,7 +25862,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.5">
+    <row r="85" spans="1:7" ht="15.75">
       <c r="A85" s="42" t="s">
         <v>543</v>
       </c>
@@ -25848,7 +25885,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.5">
+    <row r="86" spans="1:7" ht="15.75">
       <c r="A86" s="42" t="s">
         <v>548</v>
       </c>
@@ -25871,7 +25908,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.5">
+    <row r="87" spans="1:7" ht="15.75">
       <c r="A87" s="42" t="s">
         <v>553</v>
       </c>
@@ -25894,7 +25931,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.5">
+    <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="42" t="s">
         <v>558</v>
       </c>
@@ -25917,7 +25954,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.5">
+    <row r="89" spans="1:7" ht="15.75">
       <c r="A89" s="42" t="s">
         <v>563</v>
       </c>
@@ -25940,7 +25977,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.5">
+    <row r="90" spans="1:7" ht="15.75">
       <c r="A90" s="42" t="s">
         <v>568</v>
       </c>
@@ -25963,7 +26000,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.5">
+    <row r="91" spans="1:7" ht="15.75">
       <c r="A91" s="42" t="s">
         <v>573</v>
       </c>
@@ -25986,7 +26023,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.5">
+    <row r="92" spans="1:7" ht="15.75">
       <c r="A92" s="42" t="s">
         <v>580</v>
       </c>
@@ -26009,7 +26046,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.5">
+    <row r="93" spans="1:7" ht="15.75">
       <c r="A93" s="42" t="s">
         <v>587</v>
       </c>
@@ -26032,7 +26069,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.5">
+    <row r="94" spans="1:7" ht="15.75">
       <c r="A94" s="42" t="s">
         <v>593</v>
       </c>
@@ -26055,7 +26092,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.5">
+    <row r="95" spans="1:7" ht="15.75">
       <c r="A95" s="42" t="s">
         <v>599</v>
       </c>
@@ -26078,7 +26115,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.5">
+    <row r="96" spans="1:7" ht="15.75">
       <c r="A96" s="42" t="s">
         <v>604</v>
       </c>
@@ -26101,7 +26138,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.5">
+    <row r="97" spans="1:7" ht="15.75">
       <c r="A97" s="42" t="s">
         <v>609</v>
       </c>
@@ -26124,7 +26161,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.5">
+    <row r="98" spans="1:7" ht="15.75">
       <c r="A98" s="42" t="s">
         <v>615</v>
       </c>
@@ -26147,7 +26184,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.5">
+    <row r="99" spans="1:7" ht="15.75">
       <c r="A99" s="42" t="s">
         <v>622</v>
       </c>
@@ -26170,7 +26207,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.5">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="42" t="s">
         <v>629</v>
       </c>
@@ -26193,7 +26230,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.5">
+    <row r="101" spans="1:7" ht="15.75">
       <c r="A101" s="42" t="s">
         <v>635</v>
       </c>
@@ -26216,7 +26253,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.5">
+    <row r="102" spans="1:7" ht="15.75">
       <c r="A102" s="42" t="s">
         <v>641</v>
       </c>
@@ -26239,7 +26276,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.5">
+    <row r="103" spans="1:7" ht="15.75">
       <c r="A103" s="42" t="s">
         <v>648</v>
       </c>
@@ -26262,7 +26299,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.5">
+    <row r="104" spans="1:7" ht="15.75">
       <c r="A104" s="42" t="s">
         <v>654</v>
       </c>
@@ -26285,7 +26322,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.5">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="42" t="s">
         <v>660</v>
       </c>
@@ -26308,7 +26345,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.5">
+    <row r="106" spans="1:7" ht="15.75">
       <c r="A106" s="42" t="s">
         <v>666</v>
       </c>
@@ -26331,7 +26368,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.5">
+    <row r="107" spans="1:7" ht="15.75">
       <c r="A107" s="42" t="s">
         <v>671</v>
       </c>
@@ -26354,7 +26391,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.5">
+    <row r="108" spans="1:7" ht="15.75">
       <c r="A108" s="42" t="s">
         <v>676</v>
       </c>
@@ -26377,7 +26414,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.5">
+    <row r="109" spans="1:7" ht="15.75">
       <c r="A109" s="42" t="s">
         <v>681</v>
       </c>
@@ -26400,7 +26437,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.5">
+    <row r="110" spans="1:7" ht="15.75">
       <c r="A110" s="42" t="s">
         <v>687</v>
       </c>
@@ -26423,7 +26460,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.5">
+    <row r="111" spans="1:7" ht="15.75">
       <c r="A111" s="42" t="s">
         <v>692</v>
       </c>
@@ -26446,7 +26483,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.5">
+    <row r="112" spans="1:7" ht="15.75">
       <c r="A112" s="42" t="s">
         <v>697</v>
       </c>
@@ -26469,7 +26506,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.5">
+    <row r="113" spans="1:7" ht="15.75">
       <c r="A113" s="42" t="s">
         <v>704</v>
       </c>
@@ -26492,7 +26529,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.5">
+    <row r="114" spans="1:7" ht="15.75">
       <c r="A114" s="42" t="s">
         <v>711</v>
       </c>
@@ -26515,7 +26552,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.5">
+    <row r="115" spans="1:7" ht="15.75">
       <c r="A115" s="42" t="s">
         <v>718</v>
       </c>
@@ -26538,7 +26575,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.5">
+    <row r="116" spans="1:7" ht="15.75">
       <c r="A116" s="42" t="s">
         <v>725</v>
       </c>
@@ -26561,7 +26598,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.5">
+    <row r="117" spans="1:7" ht="15.75">
       <c r="A117" s="42" t="s">
         <v>731</v>
       </c>
@@ -26584,7 +26621,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.5">
+    <row r="118" spans="1:7" ht="15.75">
       <c r="A118" s="42" t="s">
         <v>738</v>
       </c>
@@ -26607,7 +26644,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.5">
+    <row r="119" spans="1:7" ht="15.75">
       <c r="A119" s="42" t="s">
         <v>744</v>
       </c>
@@ -26630,7 +26667,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.5">
+    <row r="120" spans="1:7" ht="15.75">
       <c r="A120" s="42" t="s">
         <v>750</v>
       </c>
@@ -26653,7 +26690,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.5">
+    <row r="121" spans="1:7" ht="15.75">
       <c r="A121" s="42" t="s">
         <v>756</v>
       </c>
@@ -26676,7 +26713,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.5">
+    <row r="122" spans="1:7" ht="15.75">
       <c r="A122" s="42" t="s">
         <v>762</v>
       </c>
@@ -26699,7 +26736,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.5">
+    <row r="123" spans="1:7" ht="15.75">
       <c r="A123" s="42" t="s">
         <v>767</v>
       </c>
@@ -26722,7 +26759,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.5">
+    <row r="124" spans="1:7" ht="15.75">
       <c r="A124" s="42" t="s">
         <v>772</v>
       </c>
@@ -26745,7 +26782,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.5">
+    <row r="125" spans="1:7" ht="15.75">
       <c r="A125" s="42" t="s">
         <v>777</v>
       </c>
@@ -26768,7 +26805,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.5">
+    <row r="126" spans="1:7" ht="15.75">
       <c r="A126" s="42" t="s">
         <v>782</v>
       </c>
@@ -26791,7 +26828,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.5">
+    <row r="127" spans="1:7" ht="15.75">
       <c r="A127" s="42" t="s">
         <v>788</v>
       </c>
@@ -26814,7 +26851,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.5">
+    <row r="128" spans="1:7" ht="15.75">
       <c r="A128" s="42" t="s">
         <v>794</v>
       </c>
@@ -26837,7 +26874,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.5">
+    <row r="129" spans="1:7" ht="15.75">
       <c r="A129" s="42" t="s">
         <v>800</v>
       </c>
@@ -26860,7 +26897,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.5">
+    <row r="130" spans="1:7" ht="15.75">
       <c r="A130" s="42" t="s">
         <v>806</v>
       </c>
@@ -26883,7 +26920,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.5">
+    <row r="131" spans="1:7" ht="15.75">
       <c r="A131" s="42" t="s">
         <v>812</v>
       </c>
@@ -26906,7 +26943,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.5">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="42" t="s">
         <v>818</v>
       </c>
@@ -26929,7 +26966,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.5">
+    <row r="133" spans="1:7" ht="15.75">
       <c r="A133" s="42" t="s">
         <v>823</v>
       </c>
@@ -26952,7 +26989,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.5">
+    <row r="134" spans="1:7" ht="15.75">
       <c r="A134" s="42" t="s">
         <v>829</v>
       </c>
@@ -26975,7 +27012,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.5">
+    <row r="135" spans="1:7" ht="15.75">
       <c r="A135" s="42" t="s">
         <v>835</v>
       </c>
@@ -26998,7 +27035,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.5">
+    <row r="136" spans="1:7" ht="15.75">
       <c r="A136" s="42" t="s">
         <v>840</v>
       </c>
@@ -27021,7 +27058,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.5">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="42" t="s">
         <v>845</v>
       </c>
@@ -27044,7 +27081,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.5">
+    <row r="138" spans="1:7" ht="15.75">
       <c r="A138" s="42" t="s">
         <v>850</v>
       </c>
@@ -27067,7 +27104,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.5">
+    <row r="139" spans="1:7" ht="15.75">
       <c r="A139" s="42" t="s">
         <v>855</v>
       </c>
@@ -27090,7 +27127,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.5">
+    <row r="140" spans="1:7" ht="15.75">
       <c r="A140" s="42" t="s">
         <v>861</v>
       </c>
@@ -27113,7 +27150,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.5">
+    <row r="141" spans="1:7" ht="15.75">
       <c r="A141" s="42" t="s">
         <v>867</v>
       </c>
@@ -27136,7 +27173,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.5">
+    <row r="142" spans="1:7" ht="15.75">
       <c r="A142" s="42" t="s">
         <v>874</v>
       </c>
@@ -27159,7 +27196,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.5">
+    <row r="143" spans="1:7" ht="15.75">
       <c r="A143" s="42" t="s">
         <v>881</v>
       </c>
@@ -27182,7 +27219,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.5">
+    <row r="144" spans="1:7" ht="15.75">
       <c r="A144" s="42" t="s">
         <v>887</v>
       </c>
@@ -27205,7 +27242,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.5">
+    <row r="145" spans="1:7" ht="15.75">
       <c r="A145" s="42" t="s">
         <v>893</v>
       </c>
@@ -27228,7 +27265,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.5">
+    <row r="146" spans="1:7" ht="15.75">
       <c r="A146" s="42" t="s">
         <v>899</v>
       </c>
@@ -27251,7 +27288,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.5">
+    <row r="147" spans="1:7" ht="15.75">
       <c r="A147" s="42" t="s">
         <v>905</v>
       </c>
@@ -27274,7 +27311,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.5">
+    <row r="148" spans="1:7" ht="15.75">
       <c r="A148" s="42" t="s">
         <v>912</v>
       </c>
@@ -27297,7 +27334,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.5">
+    <row r="149" spans="1:7" ht="15.75">
       <c r="A149" s="42" t="s">
         <v>918</v>
       </c>
@@ -27320,7 +27357,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.5">
+    <row r="150" spans="1:7" ht="15.75">
       <c r="A150" s="42" t="s">
         <v>924</v>
       </c>
@@ -27343,7 +27380,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.5">
+    <row r="151" spans="1:7" ht="15.75">
       <c r="A151" s="42" t="s">
         <v>930</v>
       </c>
@@ -27366,7 +27403,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.5">
+    <row r="152" spans="1:7" ht="15.75">
       <c r="A152" s="42" t="s">
         <v>936</v>
       </c>
@@ -27389,7 +27426,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.5">
+    <row r="153" spans="1:7" ht="15.75">
       <c r="A153" s="42" t="s">
         <v>942</v>
       </c>
@@ -27412,7 +27449,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.5">
+    <row r="154" spans="1:7" ht="15.75">
       <c r="A154" s="42" t="s">
         <v>948</v>
       </c>
@@ -27435,7 +27472,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.5">
+    <row r="155" spans="1:7" ht="15.75">
       <c r="A155" s="42" t="s">
         <v>953</v>
       </c>
@@ -27458,7 +27495,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.5">
+    <row r="156" spans="1:7" ht="15.75">
       <c r="A156" s="42" t="s">
         <v>959</v>
       </c>
@@ -27481,7 +27518,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.5">
+    <row r="157" spans="1:7" ht="15.75">
       <c r="A157" s="42" t="s">
         <v>965</v>
       </c>
@@ -27504,7 +27541,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.5">
+    <row r="158" spans="1:7" ht="15.75">
       <c r="A158" s="42" t="s">
         <v>970</v>
       </c>
@@ -27527,7 +27564,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.5">
+    <row r="159" spans="1:7" ht="15.75">
       <c r="A159" s="42" t="s">
         <v>975</v>
       </c>
@@ -27550,7 +27587,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.5">
+    <row r="160" spans="1:7" ht="15.75">
       <c r="A160" s="42" t="s">
         <v>980</v>
       </c>
@@ -27573,7 +27610,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.5">
+    <row r="161" spans="1:7" ht="15.75">
       <c r="A161" s="42" t="s">
         <v>985</v>
       </c>
@@ -27596,7 +27633,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.5">
+    <row r="162" spans="1:7" ht="15.75">
       <c r="A162" s="42" t="s">
         <v>991</v>
       </c>
@@ -27619,7 +27656,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.5">
+    <row r="163" spans="1:7" ht="15.75">
       <c r="A163" s="42" t="s">
         <v>997</v>
       </c>
@@ -27642,7 +27679,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.5">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="42" t="s">
         <v>1003</v>
       </c>
@@ -27665,7 +27702,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.5">
+    <row r="165" spans="1:7" ht="15.75">
       <c r="A165" s="42" t="s">
         <v>1009</v>
       </c>
@@ -27688,7 +27725,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.5">
+    <row r="166" spans="1:7" ht="15.75">
       <c r="A166" s="42" t="s">
         <v>1014</v>
       </c>
@@ -27711,7 +27748,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.5">
+    <row r="167" spans="1:7" ht="15.75">
       <c r="A167" s="42" t="s">
         <v>1019</v>
       </c>
@@ -27734,7 +27771,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.5">
+    <row r="168" spans="1:7" ht="15.75">
       <c r="A168" s="42" t="s">
         <v>1025</v>
       </c>
@@ -27757,7 +27794,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.5">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="42" t="s">
         <v>1031</v>
       </c>
@@ -27780,7 +27817,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.5">
+    <row r="170" spans="1:7" ht="15.75">
       <c r="A170" s="42" t="s">
         <v>1036</v>
       </c>
@@ -27803,7 +27840,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.5">
+    <row r="171" spans="1:7" ht="15.75">
       <c r="A171" s="42" t="s">
         <v>1041</v>
       </c>
@@ -27826,7 +27863,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.5">
+    <row r="172" spans="1:7" ht="15.75">
       <c r="A172" s="42" t="s">
         <v>1046</v>
       </c>
@@ -27849,7 +27886,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.5">
+    <row r="173" spans="1:7" ht="15.75">
       <c r="A173" s="42" t="s">
         <v>1051</v>
       </c>
@@ -27872,7 +27909,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.5">
+    <row r="174" spans="1:7" ht="15.75">
       <c r="A174" s="42" t="s">
         <v>1058</v>
       </c>
@@ -27895,7 +27932,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.5">
+    <row r="175" spans="1:7" ht="15.75">
       <c r="A175" s="42" t="s">
         <v>1065</v>
       </c>
@@ -27918,7 +27955,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.5">
+    <row r="176" spans="1:7" ht="15.75">
       <c r="A176" s="42" t="s">
         <v>1071</v>
       </c>
@@ -27941,7 +27978,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.5">
+    <row r="177" spans="1:7" ht="15.75">
       <c r="A177" s="42" t="s">
         <v>1077</v>
       </c>
@@ -27964,7 +28001,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.5">
+    <row r="178" spans="1:7" ht="15.75">
       <c r="A178" s="42" t="s">
         <v>1083</v>
       </c>
@@ -27987,7 +28024,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.5">
+    <row r="179" spans="1:7" ht="15.75">
       <c r="A179" s="42" t="s">
         <v>1090</v>
       </c>
@@ -28010,7 +28047,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.5">
+    <row r="180" spans="1:7" ht="15.75">
       <c r="A180" s="42" t="s">
         <v>1097</v>
       </c>
@@ -28033,7 +28070,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.5">
+    <row r="181" spans="1:7" ht="15.75">
       <c r="A181" s="42" t="s">
         <v>1103</v>
       </c>
@@ -28056,7 +28093,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.5">
+    <row r="182" spans="1:7" ht="15.75">
       <c r="A182" s="42" t="s">
         <v>1109</v>
       </c>
@@ -28079,7 +28116,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.5">
+    <row r="183" spans="1:7" ht="15.75">
       <c r="A183" s="42" t="s">
         <v>1114</v>
       </c>
@@ -28298,13 +28335,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="15.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="16.1796875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="3"/>
-    <col min="8" max="16384" width="14.81640625" style="3"/>
+    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="16.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="16384" width="14.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -28321,7 +28358,7 @@
       <c r="E1" s="59"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
         <v>1122</v>
       </c>
@@ -28333,7 +28370,7 @@
       <c r="E2" s="62"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1" t="s">
         <v>1124</v>
       </c>
@@ -28424,7 +28461,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1" t="s">
         <v>1145</v>
       </c>
@@ -28488,7 +28525,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
         <v>1161</v>
       </c>
@@ -30378,27 +30415,27 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.6" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="7" width="9.1796875"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="7" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.5">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="8" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="9" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5">
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:1" ht="170.5">
+    <row r="4" spans="1:1" ht="165.75">
       <c r="A4" s="11" t="s">
         <v>1631</v>
       </c>
